--- a/Data/vijay_audio/all-thresholds.xlsx
+++ b/Data/vijay_audio/all-thresholds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsingh1/Documents/BackgroundEffect/Data/vijay_audio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5641175C-5FA1-8547-8088-D9A3AA05EA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D172B04-5F44-4848-A287-9A057B507208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="6380" windowWidth="32540" windowHeight="19740" xr2:uid="{C5567402-9ADD-AF4B-AC45-E14E3F442A91}"/>
+    <workbookView xWindow="1940" yWindow="3020" windowWidth="33480" windowHeight="24060" xr2:uid="{C5567402-9ADD-AF4B-AC45-E14E3F442A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Lightness</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Threshold Vijay</t>
-  </si>
-  <si>
-    <t>Threshold Heshu</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Lightness at 50% Percent Comprison Chosen v/s Standard</a:t>
+              <a:t>PSE v/s Standard</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -251,29 +248,14 @@
                 <c:pt idx="0">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.48</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,7 +456,712 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PSE v/s Standard Lightness</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Standard Lightness - 0.05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E390-4E40-B81A-A9B67D7A11D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Standard Lightness</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E390-4E40-B81A-A9B67D7A11D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Standard Lightness + 0.05</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E390-4E40-B81A-A9B67D7A11D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1564755104"/>
+        <c:axId val="1190338352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1564755104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Standard Lightness (Arbitrary Units)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190338352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190338352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PSE (Lightness at 50% comparison chosen)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564755104"/>
+        <c:crossesAt val="0.25"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14615562214912353"/>
+          <c:y val="0.18624725142517293"/>
+          <c:w val="0.36204484536982967"/>
+          <c:h val="0.22444979320426697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1030,20 +1717,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>198437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>727075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>103188</xdr:rowOff>
+      <xdr:rowOff>198437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1068,7 +2271,95 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>646908</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103189</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB8CD62-B8E9-1A19-9C30-A8DF62941FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14729</cdr:x>
+      <cdr:y>0.10802</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50906</cdr:x>
+      <cdr:y>0.18673</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06B640F-78B7-D35A-8261-AD368E93A86F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="935854" y="571058"/>
+          <a:ext cx="2298676" cy="416058"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Background Lightness</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,15 +2659,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED9AAEE-4CE8-7346-A25E-DA6ADC61229E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,11 +2677,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.3</v>
       </c>
@@ -1400,30 +2688,30 @@
       <c r="C2">
         <v>0.28000000000000003</v>
       </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.3</v>
       </c>
       <c r="B3">
         <v>0.3</v>
       </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.3</v>
       </c>
       <c r="B4">
         <v>0.35</v>
       </c>
-      <c r="C4">
-        <v>0.31</v>
-      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -1433,19 +2721,22 @@
       <c r="C5">
         <v>0.48</v>
       </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
@@ -1456,7 +2747,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.7</v>
       </c>
@@ -1466,26 +2757,68 @@
       <c r="C8">
         <v>0.68</v>
       </c>
+      <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.7</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.7</v>
       </c>
       <c r="B10">
         <v>0.75</v>
       </c>
-      <c r="C10">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.3</v>
+      </c>
+      <c r="B16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.5</v>
+      </c>
+      <c r="B17">
+        <v>0.48</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.7</v>
+      </c>
+      <c r="B18">
+        <v>0.68</v>
+      </c>
+      <c r="C18">
+        <v>0.7</v>
+      </c>
+      <c r="D18">
         <v>0.72</v>
       </c>
     </row>
